--- a/导入行政区数据模板.xlsx
+++ b/导入行政区数据模板.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\CollectData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\CollectData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B48ACD-CE75-4D37-9B14-CC0E48136957}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE20F79-AD25-48D7-A040-C22A20F628B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="-108" windowWidth="29628" windowHeight="17496" xr2:uid="{6E066EE2-1373-4D71-9CE1-0A76B6C0258D}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="18720" windowHeight="11949" activeTab="2" xr2:uid="{6E066EE2-1373-4D71-9CE1-0A76B6C0258D}"/>
   </bookViews>
   <sheets>
     <sheet name="行政区" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="1106">
   <si>
     <t>行政区</t>
   </si>
@@ -42,32 +42,4338 @@
     <t>街道</t>
   </si>
   <si>
-    <t>街道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>社区</t>
   </si>
   <si>
-    <t>社区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>小区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>芙蓉区</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>天心区</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>岳麓区</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>开福区</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>雨花区</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>望城区</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>长沙县</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁乡市</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏阳市</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>文艺路街道</t>
+  </si>
+  <si>
+    <t>朝阳街街道</t>
+  </si>
+  <si>
+    <t>韭菜园街道</t>
+  </si>
+  <si>
+    <t>五里牌街道</t>
+  </si>
+  <si>
+    <t>火星街道</t>
+  </si>
+  <si>
+    <t>马王堆街道</t>
+  </si>
+  <si>
+    <t>东屯渡街道</t>
+  </si>
+  <si>
+    <t>湘湖街道</t>
+  </si>
+  <si>
+    <t>定王台街道</t>
+  </si>
+  <si>
+    <t>荷花园街道</t>
+  </si>
+  <si>
+    <t>东岸街道</t>
+  </si>
+  <si>
+    <t>马坡岭街道</t>
+  </si>
+  <si>
+    <t>东湖街道</t>
+  </si>
+  <si>
+    <t>隆平高科技园</t>
+  </si>
+  <si>
+    <t>坡子街街道</t>
+  </si>
+  <si>
+    <t>城南路街道</t>
+  </si>
+  <si>
+    <t>裕南街街道</t>
+  </si>
+  <si>
+    <t>金盆岭街道</t>
+  </si>
+  <si>
+    <t>新开铺街道</t>
+  </si>
+  <si>
+    <t>青园街道</t>
+  </si>
+  <si>
+    <t>桂花坪街道</t>
+  </si>
+  <si>
+    <t>赤岭路街道</t>
+  </si>
+  <si>
+    <t>文源街道</t>
+  </si>
+  <si>
+    <t>先锋街道</t>
+  </si>
+  <si>
+    <t>黑石铺街道</t>
+  </si>
+  <si>
+    <t>大托铺街道</t>
+  </si>
+  <si>
+    <t>暮云街道</t>
+  </si>
+  <si>
+    <t>南托街道</t>
+  </si>
+  <si>
+    <t>望月湖街道</t>
+  </si>
+  <si>
+    <t>岳麓街道</t>
+  </si>
+  <si>
+    <t>桔子洲街道</t>
+  </si>
+  <si>
+    <t>银盆岭街道</t>
+  </si>
+  <si>
+    <t>观沙岭街道</t>
+  </si>
+  <si>
+    <t>望城坡街道</t>
+  </si>
+  <si>
+    <t>西湖街道</t>
+  </si>
+  <si>
+    <t>咸嘉湖街道</t>
+  </si>
+  <si>
+    <t>望岳街道</t>
+  </si>
+  <si>
+    <t>梅溪湖街道</t>
+  </si>
+  <si>
+    <t>麓谷街道</t>
+  </si>
+  <si>
+    <t>坪塘街道</t>
+  </si>
+  <si>
+    <t>含浦街道</t>
+  </si>
+  <si>
+    <t>天顶街道</t>
+  </si>
+  <si>
+    <t>洋湖街道</t>
+  </si>
+  <si>
+    <t>学士街道</t>
+  </si>
+  <si>
+    <t>莲花镇</t>
+  </si>
+  <si>
+    <t>雨敞坪镇</t>
+  </si>
+  <si>
+    <t>芙蓉北路街道</t>
+  </si>
+  <si>
+    <t>东风路街道</t>
+  </si>
+  <si>
+    <t>清水塘街道</t>
+  </si>
+  <si>
+    <t>望麓园街道</t>
+  </si>
+  <si>
+    <t>湘雅路街道</t>
+  </si>
+  <si>
+    <t>伍家岭街道</t>
+  </si>
+  <si>
+    <t>新河街道</t>
+  </si>
+  <si>
+    <t>通泰街街道</t>
+  </si>
+  <si>
+    <t>四方坪街道</t>
+  </si>
+  <si>
+    <t>洪山街道</t>
+  </si>
+  <si>
+    <t>浏阳河街道</t>
+  </si>
+  <si>
+    <t>月湖街道</t>
+  </si>
+  <si>
+    <t>秀峰街道</t>
+  </si>
+  <si>
+    <t>沙坪街道</t>
+  </si>
+  <si>
+    <t>捞刀河街道</t>
+  </si>
+  <si>
+    <t>青竹湖街道</t>
+  </si>
+  <si>
+    <t>侯家塘街道</t>
+  </si>
+  <si>
+    <t>左家塘街道</t>
+  </si>
+  <si>
+    <t>圭塘街道</t>
+  </si>
+  <si>
+    <t>砂子塘街道</t>
+  </si>
+  <si>
+    <t>东塘街道</t>
+  </si>
+  <si>
+    <t>雨花亭街道</t>
+  </si>
+  <si>
+    <t>高桥街道</t>
+  </si>
+  <si>
+    <t>洞井街道</t>
+  </si>
+  <si>
+    <t>黎托街道</t>
+  </si>
+  <si>
+    <t>井湾子街道</t>
+  </si>
+  <si>
+    <t>同升街道</t>
+  </si>
+  <si>
+    <t>东山街道</t>
+  </si>
+  <si>
+    <t>跳马镇</t>
+  </si>
+  <si>
+    <t>长沙雨花经济开发区管理委员会</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>高塘岭街道</t>
+  </si>
+  <si>
+    <t>丁字湾街道</t>
+  </si>
+  <si>
+    <t>大泽湖街道</t>
+  </si>
+  <si>
+    <t>月亮岛街道</t>
+  </si>
+  <si>
+    <t>白沙洲街道</t>
+  </si>
+  <si>
+    <t>金山桥街道</t>
+  </si>
+  <si>
+    <t>黄金园街道</t>
+  </si>
+  <si>
+    <t>乌山街道</t>
+  </si>
+  <si>
+    <t>铜官街道</t>
+  </si>
+  <si>
+    <t>雷锋街道</t>
+  </si>
+  <si>
+    <t>白马街道</t>
+  </si>
+  <si>
+    <t>星沙街道</t>
+  </si>
+  <si>
+    <t>泉塘街道</t>
+  </si>
+  <si>
+    <t>湘龙街道</t>
+  </si>
+  <si>
+    <t>榔梨街道</t>
+  </si>
+  <si>
+    <t>长龙街道</t>
+  </si>
+  <si>
+    <t>黄花镇</t>
+  </si>
+  <si>
+    <t>黄兴镇</t>
+  </si>
+  <si>
+    <t>安沙镇</t>
+  </si>
+  <si>
+    <t>淮川街道</t>
+  </si>
+  <si>
+    <t>集里街道</t>
+  </si>
+  <si>
+    <t>荷花街道</t>
+  </si>
+  <si>
+    <t>关口街道</t>
+  </si>
+  <si>
+    <t>玉潭街道</t>
+  </si>
+  <si>
+    <t>白马桥街道</t>
+  </si>
+  <si>
+    <t>历经铺街道</t>
+  </si>
+  <si>
+    <t>文艺路街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>朝阳街街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>韭菜园街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>五里牌街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火星街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>马王堆街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>东屯渡街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>湘湖街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定王台街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>荷花园街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>东岸街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>马坡岭街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>东湖街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>隆平高科技园</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>坡子街街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>城南路街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>裕南街街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金盆岭街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新开铺街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>青园街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桂花坪街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>赤岭路街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文源街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>先锋街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑石铺街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大托铺街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暮云街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>南托街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>望月湖街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>岳麓街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桔子洲街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>银盆岭街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>观沙岭街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>望城坡街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>西湖街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>咸嘉湖街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>望岳街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅溪湖街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>麓谷街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>坪塘街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>含浦街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天顶街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>洋湖街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学士街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>莲花镇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雨敞坪镇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>芙蓉北路街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>东风路街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>清水塘街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>望麓园街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>湘雅路街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伍家岭街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新河街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通泰街街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>四方坪街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>洪山街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏阳河街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>月湖街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>秀峰街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙坪街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>捞刀河街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>青竹湖街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>侯家塘街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>左家塘街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>圭塘街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>砂子塘街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>东塘街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雨花亭街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高桥街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>洞井街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黎托街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>井湾子街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同升街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>东山街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳马镇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长沙雨花经济开发区管理委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高塘岭街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁字湾街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大泽湖街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>月亮岛街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白沙洲街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金山桥街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金园街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌山街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铜官街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷锋街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白马街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桥驿镇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>茶亭镇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>靖港镇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乔口镇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白箬铺镇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>星沙街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>泉塘街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>湘龙街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>榔梨街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长龙街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄花镇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄兴镇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安沙镇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>淮川街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集里街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>荷花街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关口街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉潭街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白马桥街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>历经铺街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>城郊街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>识字里社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文艺新村社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>韭菜园社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>湘府社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乔庄社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>东广济桥社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>南元宫社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>朝阳社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>五一东村社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>向韶社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二里牌社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人民新村社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>曙光社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所辖行政区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桐荫里社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>八一桥社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>军区社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汤家岭社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓉园社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>五里牌社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火车站社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>燕山街社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>凌霄社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫薇社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>月桂社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴和社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陶家山社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾家坪社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>滩头坪社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>古汉城社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>马王堆社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>九道湾社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新桥新村社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火炬村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>芙蓉社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>东屯渡社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>扬帆社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉雨社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白沙湾社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金科社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>南湖社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>西湖社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>湘湖社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跃进湖社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>东湖社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>车站北路社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝南街社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏正街社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>藩后街社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>丰泉古井社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>化龙池社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄泥街社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>走马楼社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>马王街社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>恒达社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>荷晏社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨家山社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>德政园社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>荷花园社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>东方新城社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>东郡社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>东宜社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>隆平园社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>望龙社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄泥塘社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>东屯村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杉木村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>锦林社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新安社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安子岭社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张公岭村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>西龙村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙马社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>滨湖社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>韶光社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合平新村社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>东沙社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚托湾社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>东湖村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>隆平高科技园虚拟社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>八角亭社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>西牌楼社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>太平街社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>坡子街社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>青山祠社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙河社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>碧湘社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创远社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>楚湘社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登仁桥社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文庙坪社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>城南中路社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工农桥社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白沙井社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天心阁社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>古道巷社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>熙台岭社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>燕子岭社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴家坪社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>仰天湖社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>东电社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长坡社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>东瓜山社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杏花园社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>南站社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>石子冲社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>裕南街社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝塔山社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火把山社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>向东南社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏家冲社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>狮子山社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天剑社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄土岭社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>涂新社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>赤岭路社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>豹子岭社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新开铺社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桥头社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新天社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>木莲社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>友谊社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>青园社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>井湾子社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>湘园社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新园社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桂庄社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>九峰苑社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金桂社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>银桂苑社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新丰社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>芙蓉南路社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白沙花园社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>南大桥社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>广厦新村社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>书院路社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新开管委村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文源社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅岭社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>状元坡社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天鸿社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金汇社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>南城社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉和社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新宇社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新路村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑石铺社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一力社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铭安社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创谷社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>披塘村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴隆村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄合村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桂井村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大托新村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暮云社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>云塘社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>华月湖社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>花园岭社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>丽发社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢浮社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>莲华村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暮云新村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>许兴村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>南托岭社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛角塘社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>融城社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>北塘社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>南鑫社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛角塘村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>沿江村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>滨洲新村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖东社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖中社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>溁湾镇社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣龙社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>岳龙社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣华社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>枇杷塘社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>科学村社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>云麓园社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>麓山南路社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>麓枫和苑社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳光壹佰社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>靳江社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中海社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>湘桥社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>左家垅村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃花岭村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄鹤村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>五星村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>石门楼社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新民路社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>八字墙社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>岳南村社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学堂坡社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖大社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>师大社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天马社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天凤社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>后湖新村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>银星社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>银建社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>银太社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火炬城社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>银双社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>英才园社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>银鸿社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桐梓坡社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>银桥社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>林海社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铜盆湖社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>银盆岭村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>土城社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三汊矶社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>石岭塘社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>施家港社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桔洲新苑社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>岳北社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长望社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>钰龙社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金岭社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公园里社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>滨江金融社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>观裕社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>观沙岭村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>岳华村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>老虎岭社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商贸城社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>涧塘社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>箭弓山社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>湘仪社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>竹马塘社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>望新社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>望麓社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长华社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>南家塘社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>咸嘉湖社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>先锋社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>石佳冲社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>省委党校社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>谭家冲社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄泥岭社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金星社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙王港社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>茶场村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二三管区村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>咸嘉新村社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>西大门社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>荷叶塘社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白鹤咀社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>银谷国际社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>润泽园社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>七里营社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>府后路社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>八方小区社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>恒华社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>窑塘社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金星新村社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷峰村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷山村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>藕塘村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳明山庄社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>润龙社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>骑龙社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金茂社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉顺社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅园社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中塘村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>联络村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长庆社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>东塘社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长丰社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>延农社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>麓景社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>麓源社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>麓泉社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>和馨园社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>锦绣社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桔苑社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>向阳社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>麓丰社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>尖山湖社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>荷叶坝村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>华龙村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金南村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>观音港社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桐溪港社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>狮峰山村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>红桥村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>太平村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白泉村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>双湖村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴合村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>莲花山村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>含泰社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>芝字港村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大坡村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>干子村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>九丰村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>航天社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>川塘社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>青山新村社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>尖山社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>永恒社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>燕联社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>清水社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>星湖社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>永燕新村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白庙子社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新生社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>山塘社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙骨寺社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>洋湖村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝天村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>连山村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白鹤社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>斑马塘社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学联社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学安社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学锦社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学士桥社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>联丰村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学泰村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学华村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>莲花社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金华村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桐木村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙台村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙洞村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>云盖村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>东塘村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>五丰村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新中长村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾家桥村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>云集村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三和村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雨敞坪社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>福胜村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵇家山村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>泉宏村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>西湖村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新卯村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>泉水湖村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻田村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>福城社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>江滨社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>欣城社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>凤亭社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金泰路社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>江湾社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>盛世路社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王家垅社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>砚瓦池社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蚌塘社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>国防科技大学社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>精英路社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏河社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>东风路社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>德雅路社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>清水塘路社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>芙蓉路社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>便河边社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>四季花城社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水风井社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>营盘街社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>荷花池社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>富雅坪社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中山路社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上麻园岭社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文昌阁社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>百善台社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>留芳岭社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新湘路社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三角塘社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>将家垅社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陡岭社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏阳河社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建湘新村社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫荆园社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>科大佳园社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>花城社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三角洲社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开福寺路社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸福桥社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈家湖社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏路社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫凤社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>栖凤社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>西园社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>连升街社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>湘春路社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>寿星街社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉福街社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>轩辕殿社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>盐道坪社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>胜利社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金帆小区社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>四方社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>左岸社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>滨江社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李家冲社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>科大景园社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>丝茅冲社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>四季美景社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>洪西社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金鹰社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>洪山桥社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>洪雅社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈家渡社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>史家坡社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛家垅社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>双河社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>福元路社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>月湖社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸭子铺社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>马栏山社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>舟桥路社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>溪水湾社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宿龙桥社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴联社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>戴家河社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新大塘基社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>湘民社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹅羊山社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>竹隐社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>湘荷村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙坪社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中青社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉回村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>檀木岭村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>竹安村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>双塘村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>钟山村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>捞刀河社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高岭社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中岭社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>凤羽村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白霞村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗汉庄村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>青竹湖畔社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>霞凝社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金盆丘社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>植基社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新源社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新安寺社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>霞凝港社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>彩霞社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新太安社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天胜社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金霞新村社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梓园社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>韶山路社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>侯家塘社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>湘农桥社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>泉塘社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电院社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水院社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>廖家湾社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>广济桥社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻园湾社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>枫树岸社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>活力社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>左家塘社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桂花社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>赤岗社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>树木岭社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹家坡社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>官塘冲社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>红花坡社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长钢社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王公塘社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿弥岭社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖橡社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>窑岭社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长岭社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>营山巷社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长铁社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>车站南路社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉园社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长重社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>劳动东路社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>美林景园社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>体院路社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>圭塘社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中南院社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大塘社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雨花家园社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>景程社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰安社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金福社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>砂子塘社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桔园社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>茶园坡社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白沙社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金地社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金科园社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梨子山社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>野坡社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>浦沅社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>省人大社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>政院社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛婆塘社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新雨社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>七里庙社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>枫树山社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>华银园社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>井塘社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正圆社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雨新路社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>路桥社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雅塘村社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>华云社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新星社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲塘社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自然岭社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻塘桥社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>香南郡社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金环社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怡园社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高桥大市场社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>永定社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>永祥社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>五一社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鑫华社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛头社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高升社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>洞井社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄱阳社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>和平社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃花社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新裕社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新城社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>丰园社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>湘天社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>植物园社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>歇马亭社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙庭社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>南庭社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>星苑社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天际岭社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合丰社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>潭阳社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>粟塘社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>川河社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>广益社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>东澜湾社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黎锦苑社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>体育新城社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>红星社区二</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>融城苑社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>井圭路社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯家冲社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>井巷社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三湘社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>德馨园社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>红星社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>赤岗岭社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>香樟路社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>井湘社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>井旺社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>农博社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>湘莲社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白田社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>洪塘社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金井社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>联盟社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>景环社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同升湖社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>古樟树社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新聚园社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>边山社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>侯照社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>东山镇社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黎郡社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>南雅社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黎雅社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金屏社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>斑竹塘社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白竹村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>石燕湖村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>田心桥村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新田村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>喜雨村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬斯港村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>石桥村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三仙岭村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳马村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>复兴村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关刀新村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>团然村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨林新村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长沙雨花经济开发区虚拟社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>西塘街社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高塘岭社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷锋路社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白芙塘社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高塘社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>莲湖社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>航运社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>望府路社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>斑马湖社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新康社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中南社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>湘陵社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>胜利村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>裕农村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长联村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新阳村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>六合围村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>月圆村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>湘江村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新河村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>名盛村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴城社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁字湾社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>石韵社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>双桥村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻身垸村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金云村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>东马社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>南塘村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>西塘村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回龙村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>月亮岛社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄都港社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桑梓社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄狮岭社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨丰社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃花井社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金甲社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天鹅塘社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金瑞社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>名都社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中华岭村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>银星村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>戴公庙村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同心园社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>马桥河村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾飞村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄田村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桐林坳社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金坪社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金山桥社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>观音湖社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金园村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桂芳村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄岭村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐家桥社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>旺旺路社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>仁和社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>喻家坡社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>团山湖村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>八曲河村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金树村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄花岭村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙王岭村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>双兴村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌山村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>双丰村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高冲村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原佳村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维梓村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铜官街社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>誓港社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁家湖社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>潭洲社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>万星村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>华城村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>花实村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭亮村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>何桥村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>书堂山村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>石渚湖村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中山村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>彩陶源村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>荷花塘社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>和润园社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷锋社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>坪山村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>真人桥村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桥头铺村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>牌楼坝村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长兴路社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>廖家坪村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白马村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三益村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开元路社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金茂路社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>凉塘路社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>灰埠社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>松雅社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>星城社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>碧桂园社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>广生塘社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛角冲社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杉仙岭社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金搪社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨梅冲社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>望仙桥社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>封刀岭社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大西冲社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金牛湾社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金甲坪社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>板桥社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小塘社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁家岭社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长桥社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>星港社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>泉星社会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梨江社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳高社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>向星社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>景星社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>泉盛社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>星辉社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>泉韵社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>潇湘社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水渡坪社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中南汽车世界社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>石子社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>土桥社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高沙社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>湘瑞社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>湘绣社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>土岭社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大园社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陶公庙社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>檀木桥社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高峰社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金托村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>花园村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保家村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙华村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙井社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙湘社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长界社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长龙村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>茶塘村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>湘峰村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄花路社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄谷路社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>机场口社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙塘社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>排头社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>岐山社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼塘村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高岸村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷塘村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄龙新村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄花村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合心村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>华湘村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大兴村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁坪村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>崩坎村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>银龙村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接驾岭社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>干杉社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>石弓湾社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>光达社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长轴社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>沿江山村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙人市村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝田新村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹿芝岭村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>打卦岭村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄兴新村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金凤村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高塘村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>车马村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>万龙村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>斗塘新村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长安村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敢胜村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大众村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安沙社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛塘社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅塘社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三合社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水塘垸社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐田新村村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>万家铺村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋家桥村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>油铺村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>和平村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼎功桥村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新华村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄桥村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>五龙山村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙华岭村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>谭坊村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>城西社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>西正社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>北正社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新北社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>北园社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>城东社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>联城社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>神仙坳社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集里桥社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>百宜社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>禧和社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>龚家桥社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>太平桥社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>锦美社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>道吾村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>北城村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐家园村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宏源村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>星镇村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合盛村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐洲社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>南市社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨家弄村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛石岭村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>西环村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗣同村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>东环村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏河村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建新村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>南环村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水佳社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>占佳社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长兴社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金口村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨溪湖村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升平村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金桥村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>炭棚村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>溪江村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>道源湖村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金湖村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>和田村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文中社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学庵社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>花明社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>南苑社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>八一社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>香山社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>茆田社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>塘湾社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合安社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>楚沩社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新山社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通益社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白马社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙江社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正农社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>凤形社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>凤祥社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>仁福社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白龙社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>东城社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金南社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新宝塔社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>南太湖社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>历经铺村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大湾岭村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>群星村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>净土庵村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫云村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>芙蓉区</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>天心区</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁乡市</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗宦社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>沩丰社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>东沩社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅家田社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创业社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怡宁社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关心村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>石泉村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>茶亭寺村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>石头坑村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏阳市</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>岳麓区</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>开福区</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>雨花区</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>望城区</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>长沙县</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -90,6 +4396,26 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -108,24 +4434,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="2" xr:uid="{A65CBB53-2F6A-401C-A6D7-717D9055452E}"/>
+    <cellStyle name="常规 2 2" xfId="1" xr:uid="{C64F5064-1C35-4198-9B0E-0EDF581C6D85}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -437,26 +4767,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52DB1913-044E-4423-B016-EF2DDE236F5C}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A1:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="15" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="15.6" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -464,32 +4829,388 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDAC1570-F345-48B0-ACC6-7F352FBD4A98}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="C1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="C2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I2" t="s">
+        <v>136</v>
+      </c>
+      <c r="J2" t="s">
+        <v>137</v>
+      </c>
+      <c r="K2" t="s">
+        <v>138</v>
+      </c>
+      <c r="L2" t="s">
+        <v>139</v>
+      </c>
+      <c r="M2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N2" t="s">
+        <v>141</v>
+      </c>
+      <c r="O2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H3" t="s">
+        <v>149</v>
+      </c>
+      <c r="I3" t="s">
+        <v>150</v>
+      </c>
+      <c r="J3" t="s">
+        <v>151</v>
+      </c>
+      <c r="K3" t="s">
+        <v>152</v>
+      </c>
+      <c r="L3" t="s">
+        <v>153</v>
+      </c>
+      <c r="M3" t="s">
+        <v>154</v>
+      </c>
+      <c r="N3" t="s">
+        <v>155</v>
+      </c>
+      <c r="O3" t="s">
+        <v>156</v>
+      </c>
+      <c r="P3" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>158</v>
+      </c>
+      <c r="R3" t="s">
+        <v>159</v>
+      </c>
+      <c r="S3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H4" t="s">
+        <v>167</v>
+      </c>
+      <c r="I4" t="s">
+        <v>168</v>
+      </c>
+      <c r="J4" t="s">
+        <v>169</v>
+      </c>
+      <c r="K4" t="s">
+        <v>170</v>
+      </c>
+      <c r="L4" t="s">
+        <v>171</v>
+      </c>
+      <c r="M4" t="s">
+        <v>172</v>
+      </c>
+      <c r="N4" t="s">
+        <v>173</v>
+      </c>
+      <c r="O4" t="s">
+        <v>174</v>
+      </c>
+      <c r="P4" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E5" t="s">
+        <v>180</v>
+      </c>
+      <c r="F5" t="s">
+        <v>181</v>
+      </c>
+      <c r="G5" t="s">
+        <v>182</v>
+      </c>
+      <c r="H5" t="s">
+        <v>183</v>
+      </c>
+      <c r="I5" t="s">
+        <v>184</v>
+      </c>
+      <c r="J5" t="s">
+        <v>185</v>
+      </c>
+      <c r="K5" t="s">
+        <v>186</v>
+      </c>
+      <c r="L5" t="s">
+        <v>187</v>
+      </c>
+      <c r="M5" t="s">
+        <v>188</v>
+      </c>
+      <c r="N5" t="s">
+        <v>189</v>
+      </c>
+      <c r="O5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E6" t="s">
+        <v>194</v>
+      </c>
+      <c r="F6" t="s">
+        <v>195</v>
+      </c>
+      <c r="G6" t="s">
+        <v>196</v>
+      </c>
+      <c r="H6" t="s">
+        <v>197</v>
+      </c>
+      <c r="I6" t="s">
+        <v>198</v>
+      </c>
+      <c r="J6" t="s">
+        <v>199</v>
+      </c>
+      <c r="K6" t="s">
+        <v>200</v>
+      </c>
+      <c r="L6" t="s">
+        <v>201</v>
+      </c>
+      <c r="M6" t="s">
+        <v>202</v>
+      </c>
+      <c r="N6" t="s">
+        <v>203</v>
+      </c>
+      <c r="O6" t="s">
+        <v>204</v>
+      </c>
+      <c r="P6" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D7" t="s">
+        <v>209</v>
+      </c>
+      <c r="E7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H7" t="s">
+        <v>213</v>
+      </c>
+      <c r="I7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C8" t="s">
+        <v>216</v>
+      </c>
+      <c r="D8" t="s">
+        <v>217</v>
+      </c>
+      <c r="E8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C9" t="s">
+        <v>220</v>
+      </c>
+      <c r="D9" t="s">
+        <v>221</v>
+      </c>
+      <c r="E9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+      <c r="A10" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -497,38 +5218,3522 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA0F612-9867-4A57-A5A7-7E8E74E9BE41}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:W103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1087</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+      <c r="D1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G1" t="s">
+        <v>227</v>
+      </c>
+      <c r="H1" t="s">
+        <v>228</v>
+      </c>
+      <c r="I1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1087</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>230</v>
+      </c>
+      <c r="D2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G2" t="s">
+        <v>234</v>
+      </c>
+      <c r="H2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E3" t="s">
+        <v>238</v>
+      </c>
+      <c r="F3" t="s">
+        <v>239</v>
+      </c>
+      <c r="G3" t="s">
+        <v>240</v>
+      </c>
+      <c r="H3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D4" t="s">
+        <v>243</v>
+      </c>
+      <c r="E4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>245</v>
+      </c>
+      <c r="D5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E5" t="s">
+        <v>247</v>
+      </c>
+      <c r="F5" t="s">
+        <v>248</v>
+      </c>
+      <c r="G5" t="s">
+        <v>249</v>
+      </c>
+      <c r="H5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D6" t="s">
+        <v>252</v>
+      </c>
+      <c r="E6" t="s">
+        <v>253</v>
+      </c>
+      <c r="F6" t="s">
+        <v>254</v>
+      </c>
+      <c r="G6" t="s">
+        <v>255</v>
+      </c>
+      <c r="H6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>257</v>
+      </c>
+      <c r="D7" t="s">
+        <v>258</v>
+      </c>
+      <c r="E7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G7" t="s">
+        <v>261</v>
+      </c>
+      <c r="H7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>263</v>
+      </c>
+      <c r="D8" t="s">
+        <v>264</v>
+      </c>
+      <c r="E8" t="s">
+        <v>265</v>
+      </c>
+      <c r="F8" t="s">
+        <v>266</v>
+      </c>
+      <c r="G8" t="s">
+        <v>267</v>
+      </c>
+      <c r="H8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>269</v>
+      </c>
+      <c r="D9" t="s">
+        <v>270</v>
+      </c>
+      <c r="E9" t="s">
+        <v>271</v>
+      </c>
+      <c r="F9" t="s">
+        <v>272</v>
+      </c>
+      <c r="G9" t="s">
+        <v>273</v>
+      </c>
+      <c r="H9" t="s">
+        <v>274</v>
+      </c>
+      <c r="I9" t="s">
+        <v>275</v>
+      </c>
+      <c r="J9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>277</v>
+      </c>
+      <c r="D10" t="s">
+        <v>278</v>
+      </c>
+      <c r="E10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F10" t="s">
+        <v>280</v>
+      </c>
+      <c r="G10" t="s">
+        <v>281</v>
+      </c>
+      <c r="H10" t="s">
+        <v>282</v>
+      </c>
+      <c r="I10" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>284</v>
+      </c>
+      <c r="D11" t="s">
+        <v>285</v>
+      </c>
+      <c r="E11" t="s">
+        <v>286</v>
+      </c>
+      <c r="F11" t="s">
+        <v>287</v>
+      </c>
+      <c r="G11" t="s">
+        <v>288</v>
+      </c>
+      <c r="H11" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>290</v>
+      </c>
+      <c r="D12" t="s">
+        <v>291</v>
+      </c>
+      <c r="E12" t="s">
+        <v>292</v>
+      </c>
+      <c r="F12" t="s">
+        <v>293</v>
+      </c>
+      <c r="G12" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>295</v>
+      </c>
+      <c r="D13" t="s">
+        <v>296</v>
+      </c>
+      <c r="E13" t="s">
+        <v>297</v>
+      </c>
+      <c r="F13" t="s">
+        <v>298</v>
+      </c>
+      <c r="G13" t="s">
+        <v>299</v>
+      </c>
+      <c r="H13" t="s">
+        <v>300</v>
+      </c>
+      <c r="I13" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>303</v>
+      </c>
+      <c r="D15" t="s">
+        <v>304</v>
+      </c>
+      <c r="E15" t="s">
+        <v>305</v>
+      </c>
+      <c r="F15" t="s">
+        <v>306</v>
+      </c>
+      <c r="G15" t="s">
+        <v>307</v>
+      </c>
+      <c r="H15" t="s">
+        <v>308</v>
+      </c>
+      <c r="I15" t="s">
+        <v>309</v>
+      </c>
+      <c r="J15" t="s">
+        <v>310</v>
+      </c>
+      <c r="K15" t="s">
+        <v>311</v>
+      </c>
+      <c r="L15" t="s">
+        <v>264</v>
+      </c>
+      <c r="M15" t="s">
+        <v>312</v>
+      </c>
+      <c r="N15" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>314</v>
+      </c>
+      <c r="D16" t="s">
+        <v>315</v>
+      </c>
+      <c r="E16" t="s">
+        <v>316</v>
+      </c>
+      <c r="F16" t="s">
+        <v>317</v>
+      </c>
+      <c r="G16" t="s">
+        <v>318</v>
+      </c>
+      <c r="H16" t="s">
+        <v>319</v>
+      </c>
+      <c r="I16" t="s">
+        <v>320</v>
+      </c>
+      <c r="J16" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
+        <v>322</v>
+      </c>
+      <c r="D17" t="s">
+        <v>323</v>
+      </c>
+      <c r="E17" t="s">
+        <v>324</v>
+      </c>
+      <c r="F17" t="s">
+        <v>325</v>
+      </c>
+      <c r="G17" t="s">
+        <v>326</v>
+      </c>
+      <c r="H17" t="s">
+        <v>327</v>
+      </c>
+      <c r="I17" t="s">
+        <v>328</v>
+      </c>
+      <c r="J17" t="s">
+        <v>329</v>
+      </c>
+      <c r="K17" t="s">
+        <v>330</v>
+      </c>
+      <c r="L17" t="s">
+        <v>331</v>
+      </c>
+      <c r="M17" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>333</v>
+      </c>
+      <c r="D18" t="s">
+        <v>334</v>
+      </c>
+      <c r="E18" t="s">
+        <v>335</v>
+      </c>
+      <c r="F18" t="s">
+        <v>336</v>
+      </c>
+      <c r="G18" t="s">
+        <v>337</v>
+      </c>
+      <c r="H18" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" t="s">
+        <v>339</v>
+      </c>
+      <c r="D19" t="s">
+        <v>340</v>
+      </c>
+      <c r="E19" t="s">
+        <v>341</v>
+      </c>
+      <c r="F19" t="s">
+        <v>342</v>
+      </c>
+      <c r="G19" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s">
+        <v>344</v>
+      </c>
+      <c r="D20" t="s">
+        <v>345</v>
+      </c>
+      <c r="E20" t="s">
+        <v>346</v>
+      </c>
+      <c r="F20" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" t="s">
+        <v>348</v>
+      </c>
+      <c r="D21" t="s">
+        <v>349</v>
+      </c>
+      <c r="E21" t="s">
+        <v>350</v>
+      </c>
+      <c r="F21" t="s">
+        <v>351</v>
+      </c>
+      <c r="G21" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" t="s">
+        <v>353</v>
+      </c>
+      <c r="D22" t="s">
+        <v>354</v>
+      </c>
+      <c r="E22" t="s">
+        <v>355</v>
+      </c>
+      <c r="F22" t="s">
+        <v>356</v>
+      </c>
+      <c r="G22" t="s">
+        <v>357</v>
+      </c>
+      <c r="H22" t="s">
+        <v>358</v>
+      </c>
+      <c r="I22" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" t="s">
+        <v>360</v>
+      </c>
+      <c r="D23" t="s">
+        <v>361</v>
+      </c>
+      <c r="E23" t="s">
+        <v>362</v>
+      </c>
+      <c r="F23" t="s">
+        <v>363</v>
+      </c>
+      <c r="G23" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" t="s">
+        <v>365</v>
+      </c>
+      <c r="D24" t="s">
+        <v>366</v>
+      </c>
+      <c r="E24" t="s">
+        <v>367</v>
+      </c>
+      <c r="F24" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" t="s">
+        <v>369</v>
+      </c>
+      <c r="D25" t="s">
+        <v>370</v>
+      </c>
+      <c r="E25" t="s">
+        <v>371</v>
+      </c>
+      <c r="F25" t="s">
+        <v>372</v>
+      </c>
+      <c r="G25" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" t="s">
+        <v>374</v>
+      </c>
+      <c r="D26" t="s">
+        <v>375</v>
+      </c>
+      <c r="E26" t="s">
+        <v>376</v>
+      </c>
+      <c r="F26" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" t="s">
+        <v>378</v>
+      </c>
+      <c r="D27" t="s">
+        <v>379</v>
+      </c>
+      <c r="E27" t="s">
+        <v>380</v>
+      </c>
+      <c r="F27" t="s">
+        <v>381</v>
+      </c>
+      <c r="G27" t="s">
+        <v>382</v>
+      </c>
+      <c r="H27" t="s">
+        <v>383</v>
+      </c>
+      <c r="I27" t="s">
+        <v>384</v>
+      </c>
+      <c r="J27" t="s">
+        <v>385</v>
+      </c>
+      <c r="K27" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" t="s">
+        <v>387</v>
+      </c>
+      <c r="D28" t="s">
+        <v>388</v>
+      </c>
+      <c r="E28" t="s">
+        <v>389</v>
+      </c>
+      <c r="F28" t="s">
+        <v>390</v>
+      </c>
+      <c r="G28" t="s">
+        <v>391</v>
+      </c>
+      <c r="H28" t="s">
+        <v>392</v>
+      </c>
+      <c r="I28" t="s">
+        <v>393</v>
+      </c>
+      <c r="J28" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" t="s">
+        <v>395</v>
+      </c>
+      <c r="D29" t="s">
+        <v>396</v>
+      </c>
+      <c r="E29" t="s">
+        <v>397</v>
+      </c>
+      <c r="F29" t="s">
+        <v>398</v>
+      </c>
+      <c r="G29" t="s">
+        <v>399</v>
+      </c>
+      <c r="H29" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" t="s">
+        <v>401</v>
+      </c>
+      <c r="D30" t="s">
+        <v>402</v>
+      </c>
+      <c r="E30" t="s">
+        <v>403</v>
+      </c>
+      <c r="F30" t="s">
+        <v>404</v>
+      </c>
+      <c r="G30" t="s">
+        <v>405</v>
+      </c>
+      <c r="H30" t="s">
+        <v>406</v>
+      </c>
+      <c r="I30" t="s">
+        <v>407</v>
+      </c>
+      <c r="J30" t="s">
+        <v>408</v>
+      </c>
+      <c r="K30" t="s">
+        <v>409</v>
+      </c>
+      <c r="L30" t="s">
+        <v>410</v>
+      </c>
+      <c r="M30" t="s">
+        <v>411</v>
+      </c>
+      <c r="N30" t="s">
+        <v>412</v>
+      </c>
+      <c r="O30" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" t="s">
+        <v>414</v>
+      </c>
+      <c r="D31" t="s">
+        <v>415</v>
+      </c>
+      <c r="E31" t="s">
+        <v>416</v>
+      </c>
+      <c r="F31" t="s">
+        <v>417</v>
+      </c>
+      <c r="G31" t="s">
+        <v>418</v>
+      </c>
+      <c r="H31" t="s">
+        <v>419</v>
+      </c>
+      <c r="I31" t="s">
+        <v>420</v>
+      </c>
+      <c r="J31" t="s">
+        <v>421</v>
+      </c>
+      <c r="K31" t="s">
+        <v>422</v>
+      </c>
+      <c r="L31" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" t="s">
+        <v>424</v>
+      </c>
+      <c r="D32" t="s">
+        <v>425</v>
+      </c>
+      <c r="E32" t="s">
+        <v>426</v>
+      </c>
+      <c r="F32" t="s">
+        <v>427</v>
+      </c>
+      <c r="G32" t="s">
+        <v>428</v>
+      </c>
+      <c r="H32" t="s">
+        <v>429</v>
+      </c>
+      <c r="I32" t="s">
+        <v>430</v>
+      </c>
+      <c r="J32" t="s">
+        <v>431</v>
+      </c>
+      <c r="K32" t="s">
+        <v>432</v>
+      </c>
+      <c r="L32" t="s">
+        <v>433</v>
+      </c>
+      <c r="M32" t="s">
+        <v>434</v>
+      </c>
+      <c r="N32" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" t="s">
+        <v>436</v>
+      </c>
+      <c r="D33" t="s">
+        <v>437</v>
+      </c>
+      <c r="E33" t="s">
+        <v>438</v>
+      </c>
+      <c r="F33" t="s">
+        <v>439</v>
+      </c>
+      <c r="G33" t="s">
+        <v>440</v>
+      </c>
+      <c r="H33" t="s">
+        <v>441</v>
+      </c>
+      <c r="I33" t="s">
+        <v>442</v>
+      </c>
+      <c r="J33" t="s">
+        <v>443</v>
+      </c>
+      <c r="K33" t="s">
+        <v>444</v>
+      </c>
+      <c r="L33" t="s">
+        <v>445</v>
+      </c>
+      <c r="M33" t="s">
+        <v>446</v>
+      </c>
+      <c r="N33" t="s">
+        <v>447</v>
+      </c>
+      <c r="O33" t="s">
+        <v>448</v>
+      </c>
+      <c r="P33" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" t="s">
+        <v>450</v>
+      </c>
+      <c r="D34" t="s">
+        <v>451</v>
+      </c>
+      <c r="E34" t="s">
+        <v>452</v>
+      </c>
+      <c r="F34" t="s">
+        <v>453</v>
+      </c>
+      <c r="G34" t="s">
+        <v>454</v>
+      </c>
+      <c r="H34" t="s">
+        <v>455</v>
+      </c>
+      <c r="I34" t="s">
+        <v>456</v>
+      </c>
+      <c r="J34" t="s">
+        <v>457</v>
+      </c>
+      <c r="K34" t="s">
+        <v>458</v>
+      </c>
+      <c r="L34" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" t="s">
+        <v>460</v>
+      </c>
+      <c r="D35" t="s">
+        <v>461</v>
+      </c>
+      <c r="E35" t="s">
+        <v>462</v>
+      </c>
+      <c r="F35" t="s">
+        <v>463</v>
+      </c>
+      <c r="G35" t="s">
+        <v>464</v>
+      </c>
+      <c r="H35" t="s">
+        <v>465</v>
+      </c>
+      <c r="I35" t="s">
+        <v>466</v>
+      </c>
+      <c r="J35" t="s">
+        <v>467</v>
+      </c>
+      <c r="K35" t="s">
+        <v>468</v>
+      </c>
+      <c r="L35" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" t="s">
+        <v>470</v>
+      </c>
+      <c r="D36" t="s">
+        <v>471</v>
+      </c>
+      <c r="E36" t="s">
+        <v>472</v>
+      </c>
+      <c r="F36" t="s">
+        <v>473</v>
+      </c>
+      <c r="G36" t="s">
+        <v>474</v>
+      </c>
+      <c r="H36" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" t="s">
+        <v>476</v>
+      </c>
+      <c r="D37" t="s">
+        <v>477</v>
+      </c>
+      <c r="E37" t="s">
+        <v>478</v>
+      </c>
+      <c r="F37" t="s">
+        <v>479</v>
+      </c>
+      <c r="G37" t="s">
+        <v>480</v>
+      </c>
+      <c r="H37" t="s">
+        <v>481</v>
+      </c>
+      <c r="I37" t="s">
+        <v>482</v>
+      </c>
+      <c r="J37" t="s">
+        <v>483</v>
+      </c>
+      <c r="K37" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" t="s">
+        <v>485</v>
+      </c>
+      <c r="D38" t="s">
+        <v>486</v>
+      </c>
+      <c r="E38" t="s">
+        <v>487</v>
+      </c>
+      <c r="F38" t="s">
+        <v>488</v>
+      </c>
+      <c r="G38" t="s">
+        <v>489</v>
+      </c>
+      <c r="H38" t="s">
+        <v>490</v>
+      </c>
+      <c r="I38" t="s">
+        <v>491</v>
+      </c>
+      <c r="J38" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" t="s">
+        <v>493</v>
+      </c>
+      <c r="D39" t="s">
+        <v>494</v>
+      </c>
+      <c r="E39" t="s">
+        <v>495</v>
+      </c>
+      <c r="F39" t="s">
+        <v>496</v>
+      </c>
+      <c r="G39" t="s">
+        <v>497</v>
+      </c>
+      <c r="H39" t="s">
+        <v>498</v>
+      </c>
+      <c r="I39" t="s">
+        <v>499</v>
+      </c>
+      <c r="J39" t="s">
+        <v>500</v>
+      </c>
+      <c r="K39" t="s">
+        <v>501</v>
+      </c>
+      <c r="L39" t="s">
+        <v>502</v>
+      </c>
+      <c r="M39" t="s">
+        <v>503</v>
+      </c>
+      <c r="N39" t="s">
+        <v>504</v>
+      </c>
+      <c r="O39" t="s">
+        <v>505</v>
+      </c>
+      <c r="P39" t="s">
+        <v>506</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>507</v>
+      </c>
+      <c r="R39" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" t="s">
+        <v>509</v>
+      </c>
+      <c r="D40" t="s">
+        <v>510</v>
+      </c>
+      <c r="E40" t="s">
+        <v>511</v>
+      </c>
+      <c r="F40" t="s">
+        <v>512</v>
+      </c>
+      <c r="G40" t="s">
+        <v>513</v>
+      </c>
+      <c r="H40" t="s">
+        <v>514</v>
+      </c>
+      <c r="I40" t="s">
+        <v>515</v>
+      </c>
+      <c r="J40" t="s">
+        <v>516</v>
+      </c>
+      <c r="K40" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B41" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" t="s">
+        <v>518</v>
+      </c>
+      <c r="D41" t="s">
+        <v>519</v>
+      </c>
+      <c r="E41" t="s">
+        <v>520</v>
+      </c>
+      <c r="F41" t="s">
+        <v>521</v>
+      </c>
+      <c r="G41" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B42" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" t="s">
+        <v>523</v>
+      </c>
+      <c r="D42" t="s">
+        <v>524</v>
+      </c>
+      <c r="E42" t="s">
+        <v>525</v>
+      </c>
+      <c r="F42" t="s">
+        <v>526</v>
+      </c>
+      <c r="G42" t="s">
+        <v>527</v>
+      </c>
+      <c r="H42" t="s">
+        <v>528</v>
+      </c>
+      <c r="I42" t="s">
+        <v>529</v>
+      </c>
+      <c r="J42" t="s">
+        <v>530</v>
+      </c>
+      <c r="K42" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" t="s">
+        <v>532</v>
+      </c>
+      <c r="D43" t="s">
+        <v>533</v>
+      </c>
+      <c r="E43" t="s">
+        <v>534</v>
+      </c>
+      <c r="F43" t="s">
+        <v>535</v>
+      </c>
+      <c r="G43" t="s">
+        <v>536</v>
+      </c>
+      <c r="H43" t="s">
+        <v>537</v>
+      </c>
+      <c r="I43" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B44" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" t="s">
+        <v>539</v>
+      </c>
+      <c r="D44" t="s">
+        <v>540</v>
+      </c>
+      <c r="E44" t="s">
+        <v>541</v>
+      </c>
+      <c r="F44" t="s">
+        <v>542</v>
+      </c>
+      <c r="G44" t="s">
+        <v>543</v>
+      </c>
+      <c r="H44" t="s">
+        <v>544</v>
+      </c>
+      <c r="I44" t="s">
+        <v>545</v>
+      </c>
+      <c r="J44" t="s">
+        <v>546</v>
+      </c>
+      <c r="K44" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" t="s">
+        <v>548</v>
+      </c>
+      <c r="D45" t="s">
+        <v>549</v>
+      </c>
+      <c r="E45" t="s">
+        <v>550</v>
+      </c>
+      <c r="F45" t="s">
+        <v>551</v>
+      </c>
+      <c r="G45" t="s">
+        <v>552</v>
+      </c>
+      <c r="H45" t="s">
+        <v>553</v>
+      </c>
+      <c r="I45" t="s">
+        <v>554</v>
+      </c>
+      <c r="J45" t="s">
+        <v>555</v>
+      </c>
+      <c r="K45" t="s">
+        <v>556</v>
+      </c>
+      <c r="L45" t="s">
+        <v>557</v>
+      </c>
+      <c r="M45" t="s">
+        <v>558</v>
+      </c>
+      <c r="N45" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B46" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" t="s">
+        <v>560</v>
+      </c>
+      <c r="D46" t="s">
+        <v>561</v>
+      </c>
+      <c r="E46" t="s">
+        <v>562</v>
+      </c>
+      <c r="F46" t="s">
+        <v>563</v>
+      </c>
+      <c r="G46" t="s">
+        <v>564</v>
+      </c>
+      <c r="H46" t="s">
+        <v>565</v>
+      </c>
+      <c r="I46" t="s">
+        <v>566</v>
+      </c>
+      <c r="J46" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B47" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" t="s">
+        <v>568</v>
+      </c>
+      <c r="D47" t="s">
+        <v>569</v>
+      </c>
+      <c r="E47" t="s">
+        <v>570</v>
+      </c>
+      <c r="F47" t="s">
+        <v>571</v>
+      </c>
+      <c r="G47" t="s">
+        <v>572</v>
+      </c>
+      <c r="H47" t="s">
+        <v>573</v>
+      </c>
+      <c r="I47" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B48" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" t="s">
+        <v>575</v>
+      </c>
+      <c r="D48" t="s">
+        <v>576</v>
+      </c>
+      <c r="E48" t="s">
+        <v>577</v>
+      </c>
+      <c r="F48" t="s">
+        <v>578</v>
+      </c>
+      <c r="G48" t="s">
+        <v>579</v>
+      </c>
+      <c r="H48" t="s">
+        <v>580</v>
+      </c>
+      <c r="I48" t="s">
+        <v>581</v>
+      </c>
+      <c r="J48" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B49" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" t="s">
+        <v>583</v>
+      </c>
+      <c r="D49" t="s">
+        <v>584</v>
+      </c>
+      <c r="E49" t="s">
+        <v>585</v>
+      </c>
+      <c r="F49" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B50" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" t="s">
+        <v>587</v>
+      </c>
+      <c r="D50" t="s">
+        <v>588</v>
+      </c>
+      <c r="E50" t="s">
+        <v>589</v>
+      </c>
+      <c r="F50" t="s">
+        <v>590</v>
+      </c>
+      <c r="G50" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B51" t="s">
+        <v>63</v>
+      </c>
+      <c r="C51" t="s">
+        <v>592</v>
+      </c>
+      <c r="D51" t="s">
+        <v>593</v>
+      </c>
+      <c r="E51" t="s">
+        <v>594</v>
+      </c>
+      <c r="F51" t="s">
+        <v>595</v>
+      </c>
+      <c r="G51" t="s">
+        <v>596</v>
+      </c>
+      <c r="H51" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B52" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" t="s">
+        <v>598</v>
+      </c>
+      <c r="D52" t="s">
+        <v>599</v>
+      </c>
+      <c r="E52" t="s">
+        <v>600</v>
+      </c>
+      <c r="F52" t="s">
+        <v>601</v>
+      </c>
+      <c r="G52" t="s">
+        <v>602</v>
+      </c>
+      <c r="H52" t="s">
+        <v>603</v>
+      </c>
+      <c r="I52" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B53" t="s">
+        <v>65</v>
+      </c>
+      <c r="C53" t="s">
+        <v>605</v>
+      </c>
+      <c r="D53" t="s">
+        <v>606</v>
+      </c>
+      <c r="E53" t="s">
+        <v>607</v>
+      </c>
+      <c r="F53" t="s">
+        <v>608</v>
+      </c>
+      <c r="G53" t="s">
+        <v>609</v>
+      </c>
+      <c r="H53" t="s">
+        <v>610</v>
+      </c>
+      <c r="I53" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B54" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" t="s">
+        <v>612</v>
+      </c>
+      <c r="D54" t="s">
+        <v>613</v>
+      </c>
+      <c r="E54" t="s">
+        <v>614</v>
+      </c>
+      <c r="F54" t="s">
+        <v>615</v>
+      </c>
+      <c r="G54" t="s">
+        <v>616</v>
+      </c>
+      <c r="H54" t="s">
+        <v>617</v>
+      </c>
+      <c r="I54" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B55" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55" t="s">
+        <v>619</v>
+      </c>
+      <c r="D55" t="s">
+        <v>620</v>
+      </c>
+      <c r="E55" t="s">
+        <v>621</v>
+      </c>
+      <c r="F55" t="s">
+        <v>622</v>
+      </c>
+      <c r="G55" t="s">
+        <v>623</v>
+      </c>
+      <c r="H55" t="s">
+        <v>624</v>
+      </c>
+      <c r="I55" t="s">
+        <v>625</v>
+      </c>
+      <c r="J55" t="s">
+        <v>626</v>
+      </c>
+      <c r="K55" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B56" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" t="s">
+        <v>628</v>
+      </c>
+      <c r="D56" t="s">
+        <v>629</v>
+      </c>
+      <c r="E56" t="s">
+        <v>630</v>
+      </c>
+      <c r="F56" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B57" t="s">
+        <v>69</v>
+      </c>
+      <c r="C57" t="s">
+        <v>632</v>
+      </c>
+      <c r="D57" t="s">
+        <v>633</v>
+      </c>
+      <c r="E57" t="s">
+        <v>634</v>
+      </c>
+      <c r="F57" t="s">
+        <v>635</v>
+      </c>
+      <c r="G57" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B58" t="s">
+        <v>70</v>
+      </c>
+      <c r="C58" t="s">
+        <v>637</v>
+      </c>
+      <c r="D58" t="s">
+        <v>230</v>
+      </c>
+      <c r="E58" t="s">
+        <v>638</v>
+      </c>
+      <c r="F58" t="s">
+        <v>639</v>
+      </c>
+      <c r="G58" t="s">
+        <v>640</v>
+      </c>
+      <c r="H58" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B59" t="s">
+        <v>71</v>
+      </c>
+      <c r="C59" t="s">
+        <v>642</v>
+      </c>
+      <c r="D59" t="s">
+        <v>643</v>
+      </c>
+      <c r="E59" t="s">
+        <v>644</v>
+      </c>
+      <c r="F59" t="s">
+        <v>645</v>
+      </c>
+      <c r="G59" t="s">
+        <v>646</v>
+      </c>
+      <c r="H59" t="s">
+        <v>647</v>
+      </c>
+      <c r="I59" t="s">
+        <v>648</v>
+      </c>
+      <c r="J59" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B60" t="s">
+        <v>72</v>
+      </c>
+      <c r="C60" t="s">
+        <v>650</v>
+      </c>
+      <c r="D60" t="s">
+        <v>651</v>
+      </c>
+      <c r="E60" t="s">
+        <v>652</v>
+      </c>
+      <c r="F60" t="s">
+        <v>653</v>
+      </c>
+      <c r="G60" t="s">
+        <v>654</v>
+      </c>
+      <c r="H60" t="s">
+        <v>655</v>
+      </c>
+      <c r="I60" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B61" t="s">
+        <v>73</v>
+      </c>
+      <c r="C61" t="s">
+        <v>657</v>
+      </c>
+      <c r="D61" t="s">
+        <v>658</v>
+      </c>
+      <c r="E61" t="s">
+        <v>659</v>
+      </c>
+      <c r="F61" t="s">
+        <v>660</v>
+      </c>
+      <c r="G61" t="s">
+        <v>661</v>
+      </c>
+      <c r="H61" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B62" t="s">
+        <v>74</v>
+      </c>
+      <c r="C62" t="s">
+        <v>663</v>
+      </c>
+      <c r="D62" t="s">
+        <v>664</v>
+      </c>
+      <c r="E62" t="s">
+        <v>665</v>
+      </c>
+      <c r="F62" t="s">
+        <v>666</v>
+      </c>
+      <c r="G62" t="s">
+        <v>667</v>
+      </c>
+      <c r="H62" t="s">
+        <v>668</v>
+      </c>
+      <c r="I62" t="s">
+        <v>669</v>
+      </c>
+      <c r="J62" t="s">
+        <v>670</v>
+      </c>
+      <c r="K62" t="s">
+        <v>671</v>
+      </c>
+      <c r="L62" t="s">
+        <v>672</v>
+      </c>
+      <c r="M62" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B63" t="s">
+        <v>75</v>
+      </c>
+      <c r="C63" t="s">
+        <v>674</v>
+      </c>
+      <c r="D63" t="s">
+        <v>675</v>
+      </c>
+      <c r="E63" t="s">
+        <v>676</v>
+      </c>
+      <c r="F63" t="s">
+        <v>677</v>
+      </c>
+      <c r="G63" t="s">
+        <v>678</v>
+      </c>
+      <c r="H63" t="s">
+        <v>679</v>
+      </c>
+      <c r="I63" t="s">
+        <v>680</v>
+      </c>
+      <c r="J63" t="s">
+        <v>681</v>
+      </c>
+      <c r="K63" t="s">
+        <v>682</v>
+      </c>
+      <c r="L63" t="s">
+        <v>683</v>
+      </c>
+      <c r="M63" t="s">
+        <v>684</v>
+      </c>
+      <c r="N63" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B64" t="s">
+        <v>76</v>
+      </c>
+      <c r="C64" t="s">
+        <v>334</v>
+      </c>
+      <c r="D64" t="s">
+        <v>686</v>
+      </c>
+      <c r="E64" t="s">
+        <v>687</v>
+      </c>
+      <c r="F64" t="s">
+        <v>688</v>
+      </c>
+      <c r="G64" t="s">
+        <v>689</v>
+      </c>
+      <c r="H64" t="s">
+        <v>472</v>
+      </c>
+      <c r="I64" t="s">
+        <v>690</v>
+      </c>
+      <c r="J64" t="s">
+        <v>691</v>
+      </c>
+      <c r="K64" t="s">
+        <v>692</v>
+      </c>
+      <c r="L64" t="s">
+        <v>388</v>
+      </c>
+      <c r="M64" t="s">
+        <v>693</v>
+      </c>
+      <c r="N64" t="s">
+        <v>694</v>
+      </c>
+      <c r="O64" t="s">
+        <v>695</v>
+      </c>
+      <c r="P64" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>696</v>
+      </c>
+      <c r="R64" t="s">
+        <v>697</v>
+      </c>
+      <c r="S64" t="s">
+        <v>698</v>
+      </c>
+      <c r="T64" t="s">
+        <v>699</v>
+      </c>
+      <c r="U64" t="s">
+        <v>700</v>
+      </c>
+      <c r="V64" t="s">
+        <v>701</v>
+      </c>
+      <c r="W64" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B65" t="s">
+        <v>77</v>
+      </c>
+      <c r="C65" t="s">
+        <v>703</v>
+      </c>
+      <c r="D65" t="s">
+        <v>704</v>
+      </c>
+      <c r="E65" t="s">
+        <v>705</v>
+      </c>
+      <c r="F65" t="s">
+        <v>706</v>
+      </c>
+      <c r="G65" t="s">
+        <v>707</v>
+      </c>
+      <c r="H65" t="s">
+        <v>708</v>
+      </c>
+      <c r="I65" t="s">
+        <v>709</v>
+      </c>
+      <c r="J65" t="s">
+        <v>710</v>
+      </c>
+      <c r="K65" t="s">
+        <v>711</v>
+      </c>
+      <c r="L65" t="s">
+        <v>712</v>
+      </c>
+      <c r="M65" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B66" t="s">
+        <v>78</v>
+      </c>
+      <c r="C66" t="s">
+        <v>714</v>
+      </c>
+      <c r="D66" t="s">
+        <v>715</v>
+      </c>
+      <c r="E66" t="s">
+        <v>716</v>
+      </c>
+      <c r="F66" t="s">
+        <v>717</v>
+      </c>
+      <c r="G66" t="s">
+        <v>718</v>
+      </c>
+      <c r="H66" t="s">
+        <v>719</v>
+      </c>
+      <c r="I66" t="s">
+        <v>720</v>
+      </c>
+      <c r="J66" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B67" t="s">
+        <v>79</v>
+      </c>
+      <c r="C67" t="s">
+        <v>722</v>
+      </c>
+      <c r="D67" t="s">
+        <v>723</v>
+      </c>
+      <c r="E67" t="s">
+        <v>724</v>
+      </c>
+      <c r="F67" t="s">
+        <v>725</v>
+      </c>
+      <c r="G67" t="s">
+        <v>726</v>
+      </c>
+      <c r="H67" t="s">
+        <v>354</v>
+      </c>
+      <c r="I67" t="s">
+        <v>727</v>
+      </c>
+      <c r="J67" t="s">
+        <v>728</v>
+      </c>
+      <c r="K67" t="s">
+        <v>494</v>
+      </c>
+      <c r="L67" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B68" t="s">
+        <v>80</v>
+      </c>
+      <c r="C68" t="s">
+        <v>730</v>
+      </c>
+      <c r="D68" t="s">
+        <v>731</v>
+      </c>
+      <c r="E68" t="s">
+        <v>732</v>
+      </c>
+      <c r="F68" t="s">
+        <v>733</v>
+      </c>
+      <c r="G68" t="s">
+        <v>734</v>
+      </c>
+      <c r="H68" t="s">
+        <v>735</v>
+      </c>
+      <c r="I68" t="s">
+        <v>736</v>
+      </c>
+      <c r="J68" t="s">
+        <v>737</v>
+      </c>
+      <c r="K68" t="s">
+        <v>738</v>
+      </c>
+      <c r="L68" t="s">
+        <v>739</v>
+      </c>
+      <c r="M68" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B69" t="s">
+        <v>81</v>
+      </c>
+      <c r="C69" t="s">
+        <v>741</v>
+      </c>
+      <c r="D69" t="s">
+        <v>742</v>
+      </c>
+      <c r="E69" t="s">
+        <v>743</v>
+      </c>
+      <c r="F69" t="s">
+        <v>744</v>
+      </c>
+      <c r="G69" t="s">
+        <v>745</v>
+      </c>
+      <c r="H69" t="s">
+        <v>746</v>
+      </c>
+      <c r="I69" t="s">
+        <v>747</v>
+      </c>
+      <c r="J69" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B70" t="s">
+        <v>82</v>
+      </c>
+      <c r="C70" t="s">
+        <v>749</v>
+      </c>
+      <c r="D70" t="s">
+        <v>750</v>
+      </c>
+      <c r="E70" t="s">
+        <v>751</v>
+      </c>
+      <c r="F70" t="s">
+        <v>752</v>
+      </c>
+      <c r="G70" t="s">
+        <v>753</v>
+      </c>
+      <c r="H70" t="s">
+        <v>754</v>
+      </c>
+      <c r="I70" t="s">
+        <v>755</v>
+      </c>
+      <c r="J70" t="s">
+        <v>756</v>
+      </c>
+      <c r="K70" t="s">
+        <v>451</v>
+      </c>
+      <c r="L70" t="s">
+        <v>757</v>
+      </c>
+      <c r="M70" t="s">
+        <v>758</v>
+      </c>
+      <c r="N70" t="s">
+        <v>759</v>
+      </c>
+      <c r="O70" t="s">
+        <v>760</v>
+      </c>
+      <c r="P70" t="s">
+        <v>761</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>762</v>
+      </c>
+      <c r="R70" t="s">
+        <v>763</v>
+      </c>
+      <c r="S70" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B71" t="s">
+        <v>83</v>
+      </c>
+      <c r="C71" t="s">
+        <v>765</v>
+      </c>
+      <c r="D71" t="s">
+        <v>766</v>
+      </c>
+      <c r="E71" t="s">
+        <v>767</v>
+      </c>
+      <c r="F71" t="s">
+        <v>768</v>
+      </c>
+      <c r="G71" t="s">
+        <v>769</v>
+      </c>
+      <c r="H71" t="s">
+        <v>770</v>
+      </c>
+      <c r="I71" t="s">
+        <v>771</v>
+      </c>
+      <c r="J71" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B72" t="s">
+        <v>84</v>
+      </c>
+      <c r="C72" t="s">
+        <v>773</v>
+      </c>
+      <c r="D72" t="s">
+        <v>774</v>
+      </c>
+      <c r="E72" t="s">
+        <v>775</v>
+      </c>
+      <c r="F72" t="s">
+        <v>776</v>
+      </c>
+      <c r="G72" t="s">
+        <v>346</v>
+      </c>
+      <c r="H72" t="s">
+        <v>777</v>
+      </c>
+      <c r="I72" t="s">
+        <v>778</v>
+      </c>
+      <c r="J72" t="s">
+        <v>779</v>
+      </c>
+      <c r="K72" t="s">
+        <v>780</v>
+      </c>
+      <c r="L72" t="s">
+        <v>781</v>
+      </c>
+      <c r="M72" t="s">
+        <v>782</v>
+      </c>
+      <c r="N72" t="s">
+        <v>783</v>
+      </c>
+      <c r="O72" t="s">
+        <v>784</v>
+      </c>
+      <c r="P72" t="s">
+        <v>785</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B73" t="s">
+        <v>85</v>
+      </c>
+      <c r="C73" t="s">
+        <v>787</v>
+      </c>
+      <c r="D73" t="s">
+        <v>788</v>
+      </c>
+      <c r="E73" t="s">
+        <v>789</v>
+      </c>
+      <c r="F73" t="s">
+        <v>790</v>
+      </c>
+      <c r="G73" t="s">
+        <v>791</v>
+      </c>
+      <c r="H73" t="s">
+        <v>792</v>
+      </c>
+      <c r="I73" t="s">
+        <v>793</v>
+      </c>
+      <c r="J73" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B74" t="s">
+        <v>86</v>
+      </c>
+      <c r="C74" t="s">
+        <v>795</v>
+      </c>
+      <c r="D74" t="s">
+        <v>796</v>
+      </c>
+      <c r="E74" t="s">
+        <v>797</v>
+      </c>
+      <c r="F74" t="s">
+        <v>798</v>
+      </c>
+      <c r="G74" t="s">
+        <v>799</v>
+      </c>
+      <c r="H74" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B75" t="s">
+        <v>87</v>
+      </c>
+      <c r="C75" t="s">
+        <v>801</v>
+      </c>
+      <c r="D75" t="s">
+        <v>802</v>
+      </c>
+      <c r="E75" t="s">
+        <v>803</v>
+      </c>
+      <c r="F75" t="s">
+        <v>804</v>
+      </c>
+      <c r="G75" t="s">
+        <v>805</v>
+      </c>
+      <c r="H75" t="s">
+        <v>806</v>
+      </c>
+      <c r="I75" t="s">
+        <v>807</v>
+      </c>
+      <c r="J75" t="s">
+        <v>808</v>
+      </c>
+      <c r="K75" t="s">
+        <v>809</v>
+      </c>
+      <c r="L75" t="s">
+        <v>810</v>
+      </c>
+      <c r="M75" t="s">
+        <v>811</v>
+      </c>
+      <c r="N75" t="s">
+        <v>812</v>
+      </c>
+      <c r="O75" t="s">
+        <v>813</v>
+      </c>
+      <c r="P75" t="s">
+        <v>814</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B76" t="s">
+        <v>88</v>
+      </c>
+      <c r="C76" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B77" t="s">
+        <v>89</v>
+      </c>
+      <c r="C77" t="s">
+        <v>817</v>
+      </c>
+      <c r="D77" t="s">
+        <v>818</v>
+      </c>
+      <c r="E77" t="s">
+        <v>819</v>
+      </c>
+      <c r="F77" t="s">
+        <v>820</v>
+      </c>
+      <c r="G77" t="s">
+        <v>821</v>
+      </c>
+      <c r="H77" t="s">
+        <v>822</v>
+      </c>
+      <c r="I77" t="s">
+        <v>823</v>
+      </c>
+      <c r="J77" t="s">
+        <v>824</v>
+      </c>
+      <c r="K77" t="s">
+        <v>825</v>
+      </c>
+      <c r="L77" t="s">
+        <v>826</v>
+      </c>
+      <c r="M77" t="s">
+        <v>827</v>
+      </c>
+      <c r="N77" t="s">
+        <v>828</v>
+      </c>
+      <c r="O77" t="s">
+        <v>829</v>
+      </c>
+      <c r="P77" t="s">
+        <v>830</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>831</v>
+      </c>
+      <c r="R77" t="s">
+        <v>832</v>
+      </c>
+      <c r="S77" t="s">
+        <v>833</v>
+      </c>
+      <c r="T77" t="s">
+        <v>834</v>
+      </c>
+      <c r="U77" t="s">
+        <v>835</v>
+      </c>
+      <c r="V77" t="s">
+        <v>836</v>
+      </c>
+      <c r="W77" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B78" t="s">
+        <v>90</v>
+      </c>
+      <c r="C78" t="s">
+        <v>838</v>
+      </c>
+      <c r="D78" t="s">
+        <v>839</v>
+      </c>
+      <c r="E78" t="s">
+        <v>840</v>
+      </c>
+      <c r="F78" t="s">
+        <v>841</v>
+      </c>
+      <c r="G78" t="s">
+        <v>842</v>
+      </c>
+      <c r="H78" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B79" t="s">
+        <v>91</v>
+      </c>
+      <c r="C79" t="s">
+        <v>844</v>
+      </c>
+      <c r="D79" t="s">
+        <v>845</v>
+      </c>
+      <c r="E79" t="s">
+        <v>846</v>
+      </c>
+      <c r="F79" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B80" t="s">
+        <v>92</v>
+      </c>
+      <c r="C80" t="s">
+        <v>848</v>
+      </c>
+      <c r="D80" t="s">
+        <v>849</v>
+      </c>
+      <c r="E80" t="s">
+        <v>850</v>
+      </c>
+      <c r="F80" t="s">
+        <v>851</v>
+      </c>
+      <c r="G80" t="s">
+        <v>852</v>
+      </c>
+      <c r="H80" t="s">
+        <v>853</v>
+      </c>
+      <c r="I80" t="s">
+        <v>854</v>
+      </c>
+      <c r="J80" t="s">
+        <v>855</v>
+      </c>
+      <c r="K80" t="s">
+        <v>856</v>
+      </c>
+      <c r="L80" t="s">
+        <v>857</v>
+      </c>
+      <c r="M80" t="s">
+        <v>858</v>
+      </c>
+      <c r="N80" t="s">
+        <v>859</v>
+      </c>
+      <c r="O80" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>93</v>
+      </c>
+      <c r="C81" t="s">
+        <v>861</v>
+      </c>
+      <c r="D81" t="s">
+        <v>862</v>
+      </c>
+      <c r="E81" t="s">
+        <v>863</v>
+      </c>
+      <c r="F81" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B82" t="s">
+        <v>94</v>
+      </c>
+      <c r="C82" t="s">
+        <v>865</v>
+      </c>
+      <c r="D82" t="s">
+        <v>866</v>
+      </c>
+      <c r="E82" t="s">
+        <v>867</v>
+      </c>
+      <c r="F82" t="s">
+        <v>868</v>
+      </c>
+      <c r="G82" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B83" t="s">
+        <v>95</v>
+      </c>
+      <c r="C83" t="s">
+        <v>870</v>
+      </c>
+      <c r="D83" t="s">
+        <v>871</v>
+      </c>
+      <c r="E83" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B84" t="s">
+        <v>96</v>
+      </c>
+      <c r="C84" t="s">
+        <v>873</v>
+      </c>
+      <c r="D84" t="s">
+        <v>874</v>
+      </c>
+      <c r="E84" t="s">
+        <v>875</v>
+      </c>
+      <c r="F84" t="s">
+        <v>876</v>
+      </c>
+      <c r="G84" t="s">
+        <v>877</v>
+      </c>
+      <c r="H84" t="s">
+        <v>878</v>
+      </c>
+      <c r="I84" t="s">
+        <v>879</v>
+      </c>
+      <c r="J84" t="s">
+        <v>880</v>
+      </c>
+      <c r="K84" t="s">
+        <v>881</v>
+      </c>
+      <c r="L84" t="s">
+        <v>882</v>
+      </c>
+      <c r="M84" t="s">
+        <v>883</v>
+      </c>
+      <c r="N84" t="s">
+        <v>884</v>
+      </c>
+      <c r="O84" t="s">
+        <v>885</v>
+      </c>
+      <c r="P84" t="s">
+        <v>886</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B85" t="s">
+        <v>97</v>
+      </c>
+      <c r="C85" t="s">
+        <v>888</v>
+      </c>
+      <c r="D85" t="s">
+        <v>658</v>
+      </c>
+      <c r="E85" t="s">
+        <v>889</v>
+      </c>
+      <c r="F85" t="s">
+        <v>890</v>
+      </c>
+      <c r="G85" t="s">
+        <v>891</v>
+      </c>
+      <c r="H85" t="s">
+        <v>892</v>
+      </c>
+      <c r="I85" t="s">
+        <v>893</v>
+      </c>
+      <c r="J85" t="s">
+        <v>894</v>
+      </c>
+      <c r="K85" t="s">
+        <v>895</v>
+      </c>
+      <c r="L85" t="s">
+        <v>896</v>
+      </c>
+      <c r="M85" t="s">
+        <v>897</v>
+      </c>
+      <c r="N85" t="s">
+        <v>898</v>
+      </c>
+      <c r="O85" t="s">
+        <v>899</v>
+      </c>
+      <c r="P85" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B86" t="s">
+        <v>98</v>
+      </c>
+      <c r="C86" t="s">
+        <v>901</v>
+      </c>
+      <c r="D86" t="s">
+        <v>902</v>
+      </c>
+      <c r="E86" t="s">
+        <v>903</v>
+      </c>
+      <c r="F86" t="s">
+        <v>904</v>
+      </c>
+      <c r="G86" t="s">
+        <v>905</v>
+      </c>
+      <c r="H86" t="s">
+        <v>906</v>
+      </c>
+      <c r="I86" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B87" t="s">
+        <v>99</v>
+      </c>
+      <c r="C87" t="s">
+        <v>908</v>
+      </c>
+      <c r="D87" t="s">
+        <v>909</v>
+      </c>
+      <c r="E87" t="s">
+        <v>910</v>
+      </c>
+      <c r="F87" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B88" t="s">
+        <v>100</v>
+      </c>
+      <c r="C88" t="s">
+        <v>912</v>
+      </c>
+      <c r="D88" t="s">
+        <v>913</v>
+      </c>
+      <c r="E88" t="s">
+        <v>914</v>
+      </c>
+      <c r="F88" t="s">
+        <v>915</v>
+      </c>
+      <c r="G88" t="s">
+        <v>916</v>
+      </c>
+      <c r="H88" t="s">
+        <v>917</v>
+      </c>
+      <c r="I88" t="s">
+        <v>918</v>
+      </c>
+      <c r="J88" t="s">
+        <v>919</v>
+      </c>
+      <c r="K88" t="s">
+        <v>920</v>
+      </c>
+      <c r="L88" t="s">
+        <v>921</v>
+      </c>
+      <c r="M88" t="s">
+        <v>922</v>
+      </c>
+      <c r="N88" t="s">
+        <v>923</v>
+      </c>
+      <c r="O88" t="s">
+        <v>924</v>
+      </c>
+      <c r="P88" t="s">
+        <v>925</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>926</v>
+      </c>
+      <c r="R88" t="s">
+        <v>927</v>
+      </c>
+      <c r="S88" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B89" t="s">
+        <v>101</v>
+      </c>
+      <c r="C89" t="s">
+        <v>929</v>
+      </c>
+      <c r="D89" t="s">
+        <v>930</v>
+      </c>
+      <c r="E89" t="s">
+        <v>678</v>
+      </c>
+      <c r="F89" t="s">
+        <v>931</v>
+      </c>
+      <c r="G89" t="s">
+        <v>932</v>
+      </c>
+      <c r="H89" t="s">
+        <v>933</v>
+      </c>
+      <c r="I89" t="s">
+        <v>934</v>
+      </c>
+      <c r="J89" t="s">
+        <v>935</v>
+      </c>
+      <c r="K89" t="s">
+        <v>936</v>
+      </c>
+      <c r="L89" t="s">
+        <v>937</v>
+      </c>
+      <c r="M89" t="s">
+        <v>938</v>
+      </c>
+      <c r="N89" t="s">
+        <v>939</v>
+      </c>
+      <c r="O89" t="s">
+        <v>940</v>
+      </c>
+      <c r="P89" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B90" t="s">
+        <v>102</v>
+      </c>
+      <c r="C90" t="s">
+        <v>942</v>
+      </c>
+      <c r="D90" t="s">
+        <v>943</v>
+      </c>
+      <c r="E90" t="s">
+        <v>944</v>
+      </c>
+      <c r="F90" t="s">
+        <v>945</v>
+      </c>
+      <c r="G90" t="s">
+        <v>946</v>
+      </c>
+      <c r="H90" t="s">
+        <v>947</v>
+      </c>
+      <c r="I90" t="s">
+        <v>948</v>
+      </c>
+      <c r="J90" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B91" t="s">
+        <v>103</v>
+      </c>
+      <c r="C91" t="s">
+        <v>950</v>
+      </c>
+      <c r="D91" t="s">
+        <v>951</v>
+      </c>
+      <c r="E91" t="s">
+        <v>952</v>
+      </c>
+      <c r="F91" t="s">
+        <v>953</v>
+      </c>
+      <c r="G91" t="s">
+        <v>954</v>
+      </c>
+      <c r="H91" t="s">
+        <v>955</v>
+      </c>
+      <c r="I91" t="s">
+        <v>956</v>
+      </c>
+      <c r="J91" t="s">
+        <v>957</v>
+      </c>
+      <c r="K91" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B92" t="s">
+        <v>104</v>
+      </c>
+      <c r="C92" t="s">
+        <v>959</v>
+      </c>
+      <c r="D92" t="s">
+        <v>960</v>
+      </c>
+      <c r="E92" t="s">
+        <v>961</v>
+      </c>
+      <c r="F92" t="s">
+        <v>962</v>
+      </c>
+      <c r="G92" t="s">
+        <v>963</v>
+      </c>
+      <c r="H92" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B93" t="s">
+        <v>105</v>
+      </c>
+      <c r="C93" t="s">
+        <v>965</v>
+      </c>
+      <c r="D93" t="s">
+        <v>966</v>
+      </c>
+      <c r="E93" t="s">
+        <v>967</v>
+      </c>
+      <c r="F93" t="s">
+        <v>968</v>
+      </c>
+      <c r="G93" t="s">
+        <v>969</v>
+      </c>
+      <c r="H93" t="s">
+        <v>970</v>
+      </c>
+      <c r="I93" t="s">
+        <v>971</v>
+      </c>
+      <c r="J93" t="s">
+        <v>554</v>
+      </c>
+      <c r="K93" t="s">
+        <v>972</v>
+      </c>
+      <c r="L93" t="s">
+        <v>973</v>
+      </c>
+      <c r="M93" t="s">
+        <v>974</v>
+      </c>
+      <c r="N93" t="s">
+        <v>975</v>
+      </c>
+      <c r="O93" t="s">
+        <v>976</v>
+      </c>
+      <c r="P93" t="s">
+        <v>977</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>978</v>
+      </c>
+      <c r="R93" t="s">
+        <v>979</v>
+      </c>
+      <c r="S93" t="s">
+        <v>980</v>
+      </c>
+      <c r="T93" t="s">
+        <v>981</v>
+      </c>
+      <c r="U93" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B94" t="s">
+        <v>106</v>
+      </c>
+      <c r="C94" t="s">
+        <v>982</v>
+      </c>
+      <c r="D94" t="s">
+        <v>983</v>
+      </c>
+      <c r="E94" t="s">
+        <v>984</v>
+      </c>
+      <c r="F94" t="s">
+        <v>985</v>
+      </c>
+      <c r="G94" t="s">
+        <v>986</v>
+      </c>
+      <c r="H94" t="s">
+        <v>987</v>
+      </c>
+      <c r="I94" t="s">
+        <v>988</v>
+      </c>
+      <c r="J94" t="s">
+        <v>989</v>
+      </c>
+      <c r="K94" t="s">
+        <v>990</v>
+      </c>
+      <c r="L94" t="s">
+        <v>991</v>
+      </c>
+      <c r="M94" t="s">
+        <v>992</v>
+      </c>
+      <c r="N94" t="s">
+        <v>993</v>
+      </c>
+      <c r="O94" t="s">
+        <v>994</v>
+      </c>
+      <c r="P94" t="s">
+        <v>995</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>996</v>
+      </c>
+      <c r="R94" t="s">
+        <v>997</v>
+      </c>
+      <c r="S94" t="s">
+        <v>998</v>
+      </c>
+      <c r="T94" t="s">
+        <v>999</v>
+      </c>
+      <c r="U94" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B95" t="s">
+        <v>107</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D95" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E95" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F95" t="s">
+        <v>1004</v>
+      </c>
+      <c r="G95" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H95" t="s">
+        <v>1006</v>
+      </c>
+      <c r="I95" t="s">
+        <v>1007</v>
+      </c>
+      <c r="J95" t="s">
+        <v>1008</v>
+      </c>
+      <c r="K95" t="s">
+        <v>1009</v>
+      </c>
+      <c r="L95" t="s">
+        <v>1010</v>
+      </c>
+      <c r="M95" t="s">
+        <v>1011</v>
+      </c>
+      <c r="N95" t="s">
+        <v>1012</v>
+      </c>
+      <c r="O95" t="s">
+        <v>1013</v>
+      </c>
+      <c r="P95" t="s">
+        <v>1014</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>1015</v>
+      </c>
+      <c r="R95" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B96" t="s">
+        <v>108</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D96" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E96" t="s">
+        <v>230</v>
+      </c>
+      <c r="F96" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G96" t="s">
+        <v>1020</v>
+      </c>
+      <c r="H96" t="s">
+        <v>1021</v>
+      </c>
+      <c r="I96" t="s">
+        <v>1022</v>
+      </c>
+      <c r="J96" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B97" t="s">
+        <v>109</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D97" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E97" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F97" t="s">
+        <v>1027</v>
+      </c>
+      <c r="G97" t="s">
+        <v>1028</v>
+      </c>
+      <c r="H97" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I97" t="s">
+        <v>1030</v>
+      </c>
+      <c r="J97" t="s">
+        <v>1031</v>
+      </c>
+      <c r="K97" t="s">
+        <v>1032</v>
+      </c>
+      <c r="L97" t="s">
+        <v>564</v>
+      </c>
+      <c r="M97" t="s">
+        <v>1033</v>
+      </c>
+      <c r="N97" t="s">
+        <v>1034</v>
+      </c>
+      <c r="O97" t="s">
+        <v>1035</v>
+      </c>
+      <c r="P97" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B98" t="s">
+        <v>110</v>
+      </c>
+      <c r="C98" t="s">
+        <v>281</v>
+      </c>
+      <c r="D98" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E98" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F98" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G98" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H98" t="s">
+        <v>1041</v>
+      </c>
+      <c r="I98" t="s">
+        <v>1042</v>
+      </c>
+      <c r="J98" t="s">
+        <v>1043</v>
+      </c>
+      <c r="K98" t="s">
+        <v>1044</v>
+      </c>
+      <c r="L98" t="s">
+        <v>1045</v>
+      </c>
+      <c r="M98" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B99" t="s">
+        <v>111</v>
+      </c>
+      <c r="C99" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D99" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E99" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F99" t="s">
+        <v>1050</v>
+      </c>
+      <c r="G99" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H99" t="s">
+        <v>1052</v>
+      </c>
+      <c r="I99" t="s">
+        <v>1053</v>
+      </c>
+      <c r="J99" t="s">
+        <v>1054</v>
+      </c>
+      <c r="K99" t="s">
+        <v>1055</v>
+      </c>
+      <c r="L99" t="s">
+        <v>1056</v>
+      </c>
+      <c r="M99" t="s">
+        <v>1057</v>
+      </c>
+      <c r="N99" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B100" t="s">
+        <v>112</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D100" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E100" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F100" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G100" t="s">
+        <v>1063</v>
+      </c>
+      <c r="H100" t="s">
+        <v>1064</v>
+      </c>
+      <c r="I100" t="s">
+        <v>756</v>
+      </c>
+      <c r="J100" t="s">
+        <v>1065</v>
+      </c>
+      <c r="K100" t="s">
+        <v>1066</v>
+      </c>
+      <c r="L100" t="s">
+        <v>1067</v>
+      </c>
+      <c r="M100" t="s">
+        <v>1068</v>
+      </c>
+      <c r="N100" t="s">
+        <v>1069</v>
+      </c>
+      <c r="O100" t="s">
+        <v>1070</v>
+      </c>
+      <c r="P100" t="s">
+        <v>826</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B101" t="s">
+        <v>113</v>
+      </c>
+      <c r="C101" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D101" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E101" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F101" t="s">
+        <v>1074</v>
+      </c>
+      <c r="G101" t="s">
+        <v>1075</v>
+      </c>
+      <c r="H101" t="s">
+        <v>1076</v>
+      </c>
+      <c r="I101" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B102" t="s">
+        <v>114</v>
+      </c>
+      <c r="C102" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D102" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E102" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F102" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G102" t="s">
+        <v>1082</v>
+      </c>
+      <c r="H102" t="s">
+        <v>1083</v>
+      </c>
+      <c r="I102" t="s">
+        <v>1084</v>
+      </c>
+      <c r="J102" t="s">
+        <v>1085</v>
+      </c>
+      <c r="K102" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B103" t="s">
+        <v>222</v>
+      </c>
+      <c r="C103" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D103" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E103" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F103" t="s">
+        <v>1093</v>
+      </c>
+      <c r="G103" t="s">
+        <v>1094</v>
+      </c>
+      <c r="H103" t="s">
+        <v>1095</v>
+      </c>
+      <c r="I103" t="s">
+        <v>1096</v>
+      </c>
+      <c r="J103" t="s">
+        <v>1097</v>
+      </c>
+      <c r="K103" t="s">
+        <v>1098</v>
+      </c>
+      <c r="L103" t="s">
+        <v>1099</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -542,9 +8747,9 @@
       <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -552,13 +8757,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -566,14 +8771,14 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/导入行政区数据模板.xlsx
+++ b/导入行政区数据模板.xlsx
@@ -1,59 +1,82 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\CollectData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B48ACD-CE75-4D37-9B14-CC0E48136957}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D050B4-1785-4C9C-9385-2002D212BDF3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="-108" windowWidth="29628" windowHeight="17496" xr2:uid="{6E066EE2-1373-4D71-9CE1-0A76B6C0258D}"/>
+    <workbookView xWindow="1209" yWindow="-103" windowWidth="20837" windowHeight="13920" firstSheet="2" activeTab="3" xr2:uid="{6E066EE2-1373-4D71-9CE1-0A76B6C0258D}"/>
   </bookViews>
   <sheets>
-    <sheet name="行政区" sheetId="1" r:id="rId1"/>
-    <sheet name="行政区_街道" sheetId="2" r:id="rId2"/>
-    <sheet name="行政区_街道_社区" sheetId="3" r:id="rId3"/>
-    <sheet name="行政区_街道_社区_小区" sheetId="4" r:id="rId4"/>
+    <sheet name="省份" sheetId="8" r:id="rId1"/>
+    <sheet name="省份_城市" sheetId="7" r:id="rId2"/>
+    <sheet name="省份_城市_行政区" sheetId="1" r:id="rId3"/>
+    <sheet name="省份_城市_行政区_街道" sheetId="2" r:id="rId4"/>
+    <sheet name="省份_城市_行政区_街道_社区" sheetId="5" r:id="rId5"/>
+    <sheet name="省份_城市_行政区_街道_社区_小区" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="12">
+  <si>
+    <t>省份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试省份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>行政区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试行政区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>街道</t>
-  </si>
-  <si>
-    <t>街道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试街道</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>社区</t>
-  </si>
-  <si>
-    <t>社区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试社区</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>小区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试小区</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -61,7 +84,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,19 +99,6 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF6A8759"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -113,14 +123,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -436,23 +440,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52DB1913-044E-4423-B016-EF2DDE236F5C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2350975-D82C-4118-A334-2887731023E4}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -463,29 +467,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDAC1570-F345-48B0-ACC6-7F352FBD4A98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D9CF6C-BDD8-4909-BBB0-3B242EF19E5D}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -496,16 +500,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA0F612-9867-4A57-A5A7-7E8E74E9BE41}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52DB1913-044E-4423-B016-EF2DDE236F5C}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -516,15 +520,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -535,16 +539,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4A827BB-2D1B-4C6B-A4E9-67F40108F733}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDAC1570-F345-48B0-ACC6-7F352FBD4A98}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -552,24 +556,132 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BB68D4-0879-4D19-A0B9-F857875E0860}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
       <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05DB0D88-E472-4AA0-A11E-44E8E30CDBA4}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
